--- a/excel_copies/iso_excel_2024-2025.xlsx
+++ b/excel_copies/iso_excel_2024-2025.xlsx
@@ -171,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -290,6 +290,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
@@ -638,13 +650,13 @@
   <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="8.83203125" customWidth="1" style="4" min="1" max="1"/>
-    <col width="8.83203125" customWidth="1" style="4" min="2" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="4" min="1" max="2"/>
+    <col width="8.83203125" customWidth="1" style="4" min="3" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -716,17 +728,17 @@
     <row r="2">
       <c r="A2" s="5" t="n"/>
       <c r="B2" s="6" t="n"/>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="34" t="inlineStr">
         <is>
           <t>ALOTTED</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="D2" s="33" t="inlineStr">
         <is>
           <t>E-Act</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="E2" s="33" t="inlineStr">
         <is>
           <t>E-Add</t>
         </is>
@@ -741,17 +753,17 @@
           <t>Gap</t>
         </is>
       </c>
-      <c r="H2" s="7" t="inlineStr">
+      <c r="H2" s="34" t="inlineStr">
         <is>
           <t>ALOTTED</t>
         </is>
       </c>
-      <c r="I2" s="8" t="inlineStr">
+      <c r="I2" s="33" t="inlineStr">
         <is>
           <t>E-Act</t>
         </is>
       </c>
-      <c r="J2" s="8" t="inlineStr">
+      <c r="J2" s="33" t="inlineStr">
         <is>
           <t>E-Add</t>
         </is>
@@ -766,17 +778,17 @@
           <t>Gap</t>
         </is>
       </c>
-      <c r="M2" s="7" t="inlineStr">
+      <c r="M2" s="34" t="inlineStr">
         <is>
           <t>ALOTTED</t>
         </is>
       </c>
-      <c r="N2" s="8" t="inlineStr">
+      <c r="N2" s="33" t="inlineStr">
         <is>
           <t>E-Act</t>
         </is>
       </c>
-      <c r="O2" s="8" t="inlineStr">
+      <c r="O2" s="33" t="inlineStr">
         <is>
           <t>E-Add</t>
         </is>
@@ -791,17 +803,17 @@
           <t>Gap</t>
         </is>
       </c>
-      <c r="R2" s="7" t="inlineStr">
+      <c r="R2" s="34" t="inlineStr">
         <is>
           <t>ALOTTED</t>
         </is>
       </c>
-      <c r="S2" s="8" t="inlineStr">
+      <c r="S2" s="33" t="inlineStr">
         <is>
           <t>E-Act</t>
         </is>
       </c>
-      <c r="T2" s="8" t="inlineStr">
+      <c r="T2" s="33" t="inlineStr">
         <is>
           <t>E-Add</t>
         </is>
@@ -816,17 +828,17 @@
           <t>Gap</t>
         </is>
       </c>
-      <c r="W2" s="7" t="inlineStr">
+      <c r="W2" s="34" t="inlineStr">
         <is>
           <t>ALOTTED</t>
         </is>
       </c>
-      <c r="X2" s="8" t="inlineStr">
+      <c r="X2" s="33" t="inlineStr">
         <is>
           <t>E-Act</t>
         </is>
       </c>
-      <c r="Y2" s="8" t="inlineStr">
+      <c r="Y2" s="33" t="inlineStr">
         <is>
           <t>E-Add</t>
         </is>
@@ -876,17 +888,17 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="34" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="33" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="E3" s="16" t="inlineStr">
+      <c r="E3" s="35" t="inlineStr">
         <is>
           <t>+2</t>
         </is>
@@ -899,9 +911,9 @@
         <f>C3-D3</f>
         <v/>
       </c>
-      <c r="H3" s="7" t="n"/>
-      <c r="I3" s="8" t="n"/>
-      <c r="J3" s="16" t="inlineStr">
+      <c r="H3" s="34" t="n"/>
+      <c r="I3" s="33" t="n"/>
+      <c r="J3" s="35" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -914,9 +926,9 @@
         <f>H3-I3</f>
         <v/>
       </c>
-      <c r="M3" s="7" t="n"/>
-      <c r="N3" s="8" t="n"/>
-      <c r="O3" s="16" t="inlineStr">
+      <c r="M3" s="34" t="n"/>
+      <c r="N3" s="33" t="n"/>
+      <c r="O3" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -929,9 +941,9 @@
         <f>M3-N3</f>
         <v/>
       </c>
-      <c r="R3" s="7" t="n"/>
-      <c r="S3" s="8" t="n"/>
-      <c r="T3" s="16" t="inlineStr">
+      <c r="R3" s="34" t="n"/>
+      <c r="S3" s="33" t="n"/>
+      <c r="T3" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -944,9 +956,9 @@
         <f>R3-S3</f>
         <v/>
       </c>
-      <c r="W3" s="7" t="n"/>
-      <c r="X3" s="8" t="n"/>
-      <c r="Y3" s="16" t="inlineStr">
+      <c r="W3" s="34" t="n"/>
+      <c r="X3" s="33" t="n"/>
+      <c r="Y3" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -989,19 +1001,19 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="E4" s="16" t="inlineStr">
-        <is>
-          <t>+</t>
+      <c r="C4" s="34" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D4" s="33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="35" t="inlineStr">
+        <is>
+          <t>+5</t>
         </is>
       </c>
       <c r="F4" s="21">
@@ -1012,9 +1024,9 @@
         <f>C4-D4</f>
         <v/>
       </c>
-      <c r="H4" s="7" t="n"/>
-      <c r="I4" s="8" t="n"/>
-      <c r="J4" s="16" t="inlineStr">
+      <c r="H4" s="34" t="n"/>
+      <c r="I4" s="33" t="n"/>
+      <c r="J4" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1027,9 +1039,9 @@
         <f>H4-I4</f>
         <v/>
       </c>
-      <c r="M4" s="7" t="n"/>
-      <c r="N4" s="8" t="n"/>
-      <c r="O4" s="16" t="inlineStr">
+      <c r="M4" s="34" t="n"/>
+      <c r="N4" s="33" t="n"/>
+      <c r="O4" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1042,9 +1054,9 @@
         <f>M4-N4</f>
         <v/>
       </c>
-      <c r="R4" s="7" t="n"/>
-      <c r="S4" s="8" t="n"/>
-      <c r="T4" s="16" t="inlineStr">
+      <c r="R4" s="34" t="n"/>
+      <c r="S4" s="33" t="n"/>
+      <c r="T4" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1057,9 +1069,9 @@
         <f>R4-S4</f>
         <v/>
       </c>
-      <c r="W4" s="7" t="n"/>
-      <c r="X4" s="8" t="n"/>
-      <c r="Y4" s="16" t="inlineStr">
+      <c r="W4" s="34" t="n"/>
+      <c r="X4" s="33" t="n"/>
+      <c r="Y4" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1102,11 +1114,19 @@
           <t>AK</t>
         </is>
       </c>
-      <c r="C5" s="7" t="n"/>
-      <c r="D5" s="8" t="n"/>
-      <c r="E5" s="16" t="inlineStr">
-        <is>
-          <t>+</t>
+      <c r="C5" s="34" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D5" s="33" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="E5" s="35" t="inlineStr">
+        <is>
+          <t>+4</t>
         </is>
       </c>
       <c r="F5" s="21">
@@ -1117,9 +1137,9 @@
         <f>C5-D5</f>
         <v/>
       </c>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="8" t="n"/>
-      <c r="J5" s="16" t="inlineStr">
+      <c r="H5" s="34" t="n"/>
+      <c r="I5" s="33" t="n"/>
+      <c r="J5" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1132,9 +1152,9 @@
         <f>H5-I5</f>
         <v/>
       </c>
-      <c r="M5" s="7" t="n"/>
-      <c r="N5" s="8" t="n"/>
-      <c r="O5" s="16" t="inlineStr">
+      <c r="M5" s="34" t="n"/>
+      <c r="N5" s="33" t="n"/>
+      <c r="O5" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1147,9 +1167,9 @@
         <f>M5-N5</f>
         <v/>
       </c>
-      <c r="R5" s="7" t="n"/>
-      <c r="S5" s="8" t="n"/>
-      <c r="T5" s="16" t="inlineStr">
+      <c r="R5" s="34" t="n"/>
+      <c r="S5" s="33" t="n"/>
+      <c r="T5" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1162,9 +1182,9 @@
         <f>R5-S5</f>
         <v/>
       </c>
-      <c r="W5" s="7" t="n"/>
-      <c r="X5" s="8" t="n"/>
-      <c r="Y5" s="16" t="inlineStr">
+      <c r="W5" s="34" t="n"/>
+      <c r="X5" s="33" t="n"/>
+      <c r="Y5" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1207,11 +1227,19 @@
           <t>VK</t>
         </is>
       </c>
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="8" t="n"/>
-      <c r="E6" s="16" t="inlineStr">
-        <is>
-          <t>+</t>
+      <c r="C6" s="34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" s="33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E6" s="35" t="inlineStr">
+        <is>
+          <t>+5</t>
         </is>
       </c>
       <c r="F6" s="21">
@@ -1222,9 +1250,9 @@
         <f>C6-D6</f>
         <v/>
       </c>
-      <c r="H6" s="7" t="n"/>
-      <c r="I6" s="8" t="n"/>
-      <c r="J6" s="16" t="inlineStr">
+      <c r="H6" s="34" t="n"/>
+      <c r="I6" s="33" t="n"/>
+      <c r="J6" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1237,9 +1265,9 @@
         <f>H6-I6</f>
         <v/>
       </c>
-      <c r="M6" s="7" t="n"/>
-      <c r="N6" s="8" t="n"/>
-      <c r="O6" s="16" t="inlineStr">
+      <c r="M6" s="34" t="n"/>
+      <c r="N6" s="33" t="n"/>
+      <c r="O6" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1252,9 +1280,9 @@
         <f>M6-N6</f>
         <v/>
       </c>
-      <c r="R6" s="7" t="n"/>
-      <c r="S6" s="8" t="n"/>
-      <c r="T6" s="16" t="inlineStr">
+      <c r="R6" s="34" t="n"/>
+      <c r="S6" s="33" t="n"/>
+      <c r="T6" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1267,9 +1295,9 @@
         <f>R6-S6</f>
         <v/>
       </c>
-      <c r="W6" s="7" t="n"/>
-      <c r="X6" s="8" t="n"/>
-      <c r="Y6" s="16" t="inlineStr">
+      <c r="W6" s="34" t="n"/>
+      <c r="X6" s="33" t="n"/>
+      <c r="Y6" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1312,11 +1340,19 @@
           <t>KJ</t>
         </is>
       </c>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="8" t="n"/>
-      <c r="E7" s="16" t="inlineStr">
-        <is>
-          <t>+</t>
+      <c r="C7" s="34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" s="35" t="inlineStr">
+        <is>
+          <t>+5</t>
         </is>
       </c>
       <c r="F7" s="21">
@@ -1327,9 +1363,9 @@
         <f>C7-D7</f>
         <v/>
       </c>
-      <c r="H7" s="7" t="n"/>
-      <c r="I7" s="8" t="n"/>
-      <c r="J7" s="16" t="inlineStr">
+      <c r="H7" s="34" t="n"/>
+      <c r="I7" s="33" t="n"/>
+      <c r="J7" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1342,9 +1378,9 @@
         <f>H7-I7</f>
         <v/>
       </c>
-      <c r="M7" s="7" t="n"/>
-      <c r="N7" s="8" t="n"/>
-      <c r="O7" s="16" t="inlineStr">
+      <c r="M7" s="34" t="n"/>
+      <c r="N7" s="33" t="n"/>
+      <c r="O7" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1357,9 +1393,9 @@
         <f>M7-N7</f>
         <v/>
       </c>
-      <c r="R7" s="7" t="n"/>
-      <c r="S7" s="8" t="n"/>
-      <c r="T7" s="16" t="inlineStr">
+      <c r="R7" s="34" t="n"/>
+      <c r="S7" s="33" t="n"/>
+      <c r="T7" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1372,9 +1408,9 @@
         <f>R7-S7</f>
         <v/>
       </c>
-      <c r="W7" s="7" t="n"/>
-      <c r="X7" s="8" t="n"/>
-      <c r="Y7" s="16" t="inlineStr">
+      <c r="W7" s="34" t="n"/>
+      <c r="X7" s="33" t="n"/>
+      <c r="Y7" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1417,11 +1453,19 @@
           <t>BT</t>
         </is>
       </c>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="8" t="n"/>
-      <c r="E8" s="16" t="inlineStr">
-        <is>
-          <t>+</t>
+      <c r="C8" s="34" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D8" s="33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E8" s="35" t="inlineStr">
+        <is>
+          <t>+5</t>
         </is>
       </c>
       <c r="F8" s="21">
@@ -1432,9 +1476,9 @@
         <f>C8-D8</f>
         <v/>
       </c>
-      <c r="H8" s="7" t="n"/>
-      <c r="I8" s="8" t="n"/>
-      <c r="J8" s="16" t="inlineStr">
+      <c r="H8" s="34" t="n"/>
+      <c r="I8" s="33" t="n"/>
+      <c r="J8" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1447,9 +1491,9 @@
         <f>H8-I8</f>
         <v/>
       </c>
-      <c r="M8" s="7" t="n"/>
-      <c r="N8" s="8" t="n"/>
-      <c r="O8" s="16" t="inlineStr">
+      <c r="M8" s="34" t="n"/>
+      <c r="N8" s="33" t="n"/>
+      <c r="O8" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1462,9 +1506,9 @@
         <f>M8-N8</f>
         <v/>
       </c>
-      <c r="R8" s="7" t="n"/>
-      <c r="S8" s="8" t="n"/>
-      <c r="T8" s="16" t="inlineStr">
+      <c r="R8" s="34" t="n"/>
+      <c r="S8" s="33" t="n"/>
+      <c r="T8" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1477,9 +1521,9 @@
         <f>R8-S8</f>
         <v/>
       </c>
-      <c r="W8" s="7" t="n"/>
-      <c r="X8" s="8" t="n"/>
-      <c r="Y8" s="16" t="inlineStr">
+      <c r="W8" s="34" t="n"/>
+      <c r="X8" s="33" t="n"/>
+      <c r="Y8" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1522,11 +1566,19 @@
           <t>OD</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="8" t="n"/>
-      <c r="E9" s="16" t="inlineStr">
-        <is>
-          <t>+</t>
+      <c r="C9" s="34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" s="33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E9" s="35" t="inlineStr">
+        <is>
+          <t>+5</t>
         </is>
       </c>
       <c r="F9" s="21">
@@ -1537,9 +1589,9 @@
         <f>C9-D9</f>
         <v/>
       </c>
-      <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="n"/>
-      <c r="J9" s="16" t="inlineStr">
+      <c r="H9" s="34" t="n"/>
+      <c r="I9" s="33" t="n"/>
+      <c r="J9" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1552,9 +1604,9 @@
         <f>H9-I9</f>
         <v/>
       </c>
-      <c r="M9" s="7" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="16" t="inlineStr">
+      <c r="M9" s="34" t="n"/>
+      <c r="N9" s="33" t="n"/>
+      <c r="O9" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1567,9 +1619,9 @@
         <f>M9-N9</f>
         <v/>
       </c>
-      <c r="R9" s="7" t="n"/>
-      <c r="S9" s="8" t="n"/>
-      <c r="T9" s="16" t="inlineStr">
+      <c r="R9" s="34" t="n"/>
+      <c r="S9" s="33" t="n"/>
+      <c r="T9" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1582,9 +1634,9 @@
         <f>R9-S9</f>
         <v/>
       </c>
-      <c r="W9" s="7" t="n"/>
-      <c r="X9" s="8" t="n"/>
-      <c r="Y9" s="16" t="inlineStr">
+      <c r="W9" s="34" t="n"/>
+      <c r="X9" s="33" t="n"/>
+      <c r="Y9" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -1621,34 +1673,34 @@
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="6" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="16" t="n"/>
+      <c r="C10" s="34" t="n"/>
+      <c r="D10" s="33" t="n"/>
+      <c r="E10" s="35" t="n"/>
       <c r="F10" s="9" t="n"/>
       <c r="G10" s="10" t="n"/>
-      <c r="H10" s="7" t="n"/>
-      <c r="I10" s="8" t="n"/>
-      <c r="J10" s="16" t="n"/>
+      <c r="H10" s="34" t="n"/>
+      <c r="I10" s="33" t="n"/>
+      <c r="J10" s="35" t="n"/>
       <c r="K10" s="9" t="n"/>
       <c r="L10" s="10" t="n"/>
-      <c r="M10" s="7" t="n"/>
-      <c r="N10" s="8" t="n"/>
-      <c r="O10" s="16" t="n"/>
+      <c r="M10" s="34" t="n"/>
+      <c r="N10" s="33" t="n"/>
+      <c r="O10" s="35" t="n"/>
       <c r="P10" s="9" t="n"/>
       <c r="Q10" s="10" t="n"/>
-      <c r="R10" s="7" t="n"/>
-      <c r="S10" s="8" t="n"/>
-      <c r="T10" s="16" t="n"/>
+      <c r="R10" s="34" t="n"/>
+      <c r="S10" s="33" t="n"/>
+      <c r="T10" s="35" t="n"/>
       <c r="U10" s="9" t="n"/>
       <c r="V10" s="11" t="n"/>
-      <c r="W10" s="7" t="n"/>
-      <c r="X10" s="8" t="n"/>
-      <c r="Y10" s="16" t="n"/>
+      <c r="W10" s="34" t="n"/>
+      <c r="X10" s="33" t="n"/>
+      <c r="Y10" s="35" t="n"/>
       <c r="Z10" s="9" t="n"/>
       <c r="AA10" s="11" t="n"/>
       <c r="AB10" s="17" t="n"/>
-      <c r="AC10" s="8" t="n"/>
-      <c r="AD10" s="8" t="n"/>
+      <c r="AC10" s="33" t="n"/>
+      <c r="AD10" s="33" t="n"/>
       <c r="AE10" s="9" t="n"/>
       <c r="AF10" s="11" t="n"/>
     </row>
@@ -1866,17 +1918,17 @@
     <row r="2">
       <c r="A2" s="5" t="n"/>
       <c r="B2" s="6" t="n"/>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="34" t="inlineStr">
         <is>
           <t>ALOTTED</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="D2" s="33" t="inlineStr">
         <is>
           <t>E-Act</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="E2" s="33" t="inlineStr">
         <is>
           <t>E-Add</t>
         </is>
@@ -1891,17 +1943,17 @@
           <t>Gap</t>
         </is>
       </c>
-      <c r="H2" s="7" t="inlineStr">
+      <c r="H2" s="34" t="inlineStr">
         <is>
           <t>ALOTTED</t>
         </is>
       </c>
-      <c r="I2" s="8" t="inlineStr">
+      <c r="I2" s="33" t="inlineStr">
         <is>
           <t>E-Act</t>
         </is>
       </c>
-      <c r="J2" s="8" t="inlineStr">
+      <c r="J2" s="33" t="inlineStr">
         <is>
           <t>E-Add</t>
         </is>
@@ -1916,17 +1968,17 @@
           <t>Gap</t>
         </is>
       </c>
-      <c r="M2" s="7" t="inlineStr">
+      <c r="M2" s="34" t="inlineStr">
         <is>
           <t>ALOTTED</t>
         </is>
       </c>
-      <c r="N2" s="8" t="inlineStr">
+      <c r="N2" s="33" t="inlineStr">
         <is>
           <t>E-Act</t>
         </is>
       </c>
-      <c r="O2" s="8" t="inlineStr">
+      <c r="O2" s="33" t="inlineStr">
         <is>
           <t>E-Add</t>
         </is>
@@ -1941,17 +1993,17 @@
           <t>Gap</t>
         </is>
       </c>
-      <c r="R2" s="7" t="inlineStr">
+      <c r="R2" s="34" t="inlineStr">
         <is>
           <t>ALOTTED</t>
         </is>
       </c>
-      <c r="S2" s="8" t="inlineStr">
+      <c r="S2" s="33" t="inlineStr">
         <is>
           <t>E-Act</t>
         </is>
       </c>
-      <c r="T2" s="8" t="inlineStr">
+      <c r="T2" s="33" t="inlineStr">
         <is>
           <t>E-Add</t>
         </is>
@@ -1966,17 +2018,17 @@
           <t>Gap</t>
         </is>
       </c>
-      <c r="W2" s="7" t="inlineStr">
+      <c r="W2" s="34" t="inlineStr">
         <is>
           <t>ALOTTED</t>
         </is>
       </c>
-      <c r="X2" s="8" t="inlineStr">
+      <c r="X2" s="33" t="inlineStr">
         <is>
           <t>E-Act</t>
         </is>
       </c>
-      <c r="Y2" s="8" t="inlineStr">
+      <c r="Y2" s="33" t="inlineStr">
         <is>
           <t>E-Add</t>
         </is>
@@ -2026,13 +2078,13 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="16" t="inlineStr">
+      <c r="E3" s="35" t="inlineStr">
         <is>
           <t>+ 1</t>
         </is>
@@ -2045,9 +2097,9 @@
         <f>C3-D3</f>
         <v/>
       </c>
-      <c r="H3" s="7" t="n"/>
-      <c r="I3" s="8" t="n"/>
-      <c r="J3" s="16" t="inlineStr">
+      <c r="H3" s="34" t="n"/>
+      <c r="I3" s="33" t="n"/>
+      <c r="J3" s="35" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -2060,9 +2112,9 @@
         <f>H3-I3</f>
         <v/>
       </c>
-      <c r="M3" s="7" t="n"/>
-      <c r="N3" s="8" t="n"/>
-      <c r="O3" s="16" t="inlineStr">
+      <c r="M3" s="34" t="n"/>
+      <c r="N3" s="33" t="n"/>
+      <c r="O3" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2075,9 +2127,9 @@
         <f>M3-N3</f>
         <v/>
       </c>
-      <c r="R3" s="7" t="n"/>
-      <c r="S3" s="8" t="n"/>
-      <c r="T3" s="16" t="inlineStr">
+      <c r="R3" s="34" t="n"/>
+      <c r="S3" s="33" t="n"/>
+      <c r="T3" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2090,9 +2142,9 @@
         <f>R3-S3</f>
         <v/>
       </c>
-      <c r="W3" s="7" t="n"/>
-      <c r="X3" s="8" t="n"/>
-      <c r="Y3" s="16" t="inlineStr">
+      <c r="W3" s="34" t="n"/>
+      <c r="X3" s="33" t="n"/>
+      <c r="Y3" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2135,9 +2187,9 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="C4" s="7" t="n"/>
-      <c r="D4" s="8" t="n"/>
-      <c r="E4" s="16" t="inlineStr">
+      <c r="C4" s="34" t="n"/>
+      <c r="D4" s="33" t="n"/>
+      <c r="E4" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2150,9 +2202,9 @@
         <f>C4-D4</f>
         <v/>
       </c>
-      <c r="H4" s="7" t="n"/>
-      <c r="I4" s="8" t="n"/>
-      <c r="J4" s="16" t="inlineStr">
+      <c r="H4" s="34" t="n"/>
+      <c r="I4" s="33" t="n"/>
+      <c r="J4" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2165,9 +2217,9 @@
         <f>H4-I4</f>
         <v/>
       </c>
-      <c r="M4" s="7" t="n"/>
-      <c r="N4" s="8" t="n"/>
-      <c r="O4" s="16" t="inlineStr">
+      <c r="M4" s="34" t="n"/>
+      <c r="N4" s="33" t="n"/>
+      <c r="O4" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2180,9 +2232,9 @@
         <f>M4-N4</f>
         <v/>
       </c>
-      <c r="R4" s="7" t="n"/>
-      <c r="S4" s="8" t="n"/>
-      <c r="T4" s="16" t="inlineStr">
+      <c r="R4" s="34" t="n"/>
+      <c r="S4" s="33" t="n"/>
+      <c r="T4" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2195,9 +2247,9 @@
         <f>R4-S4</f>
         <v/>
       </c>
-      <c r="W4" s="7" t="n"/>
-      <c r="X4" s="8" t="n"/>
-      <c r="Y4" s="16" t="inlineStr">
+      <c r="W4" s="34" t="n"/>
+      <c r="X4" s="33" t="n"/>
+      <c r="Y4" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2240,9 +2292,9 @@
           <t>AK</t>
         </is>
       </c>
-      <c r="C5" s="7" t="n"/>
-      <c r="D5" s="8" t="n"/>
-      <c r="E5" s="16" t="inlineStr">
+      <c r="C5" s="34" t="n"/>
+      <c r="D5" s="33" t="n"/>
+      <c r="E5" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2255,9 +2307,9 @@
         <f>C5-D5</f>
         <v/>
       </c>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="8" t="n"/>
-      <c r="J5" s="16" t="inlineStr">
+      <c r="H5" s="34" t="n"/>
+      <c r="I5" s="33" t="n"/>
+      <c r="J5" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2270,9 +2322,9 @@
         <f>H5-I5</f>
         <v/>
       </c>
-      <c r="M5" s="7" t="n"/>
-      <c r="N5" s="8" t="n"/>
-      <c r="O5" s="16" t="inlineStr">
+      <c r="M5" s="34" t="n"/>
+      <c r="N5" s="33" t="n"/>
+      <c r="O5" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2285,9 +2337,9 @@
         <f>M5-N5</f>
         <v/>
       </c>
-      <c r="R5" s="7" t="n"/>
-      <c r="S5" s="8" t="n"/>
-      <c r="T5" s="16" t="inlineStr">
+      <c r="R5" s="34" t="n"/>
+      <c r="S5" s="33" t="n"/>
+      <c r="T5" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2300,9 +2352,9 @@
         <f>R5-S5</f>
         <v/>
       </c>
-      <c r="W5" s="7" t="n"/>
-      <c r="X5" s="8" t="n"/>
-      <c r="Y5" s="16" t="inlineStr">
+      <c r="W5" s="34" t="n"/>
+      <c r="X5" s="33" t="n"/>
+      <c r="Y5" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2345,9 +2397,9 @@
           <t>VK</t>
         </is>
       </c>
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="8" t="n"/>
-      <c r="E6" s="16" t="inlineStr">
+      <c r="C6" s="34" t="n"/>
+      <c r="D6" s="33" t="n"/>
+      <c r="E6" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2360,9 +2412,9 @@
         <f>C6-D6</f>
         <v/>
       </c>
-      <c r="H6" s="7" t="n"/>
-      <c r="I6" s="8" t="n"/>
-      <c r="J6" s="16" t="inlineStr">
+      <c r="H6" s="34" t="n"/>
+      <c r="I6" s="33" t="n"/>
+      <c r="J6" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2375,9 +2427,9 @@
         <f>H6-I6</f>
         <v/>
       </c>
-      <c r="M6" s="7" t="n"/>
-      <c r="N6" s="8" t="n"/>
-      <c r="O6" s="16" t="inlineStr">
+      <c r="M6" s="34" t="n"/>
+      <c r="N6" s="33" t="n"/>
+      <c r="O6" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2390,9 +2442,9 @@
         <f>M6-N6</f>
         <v/>
       </c>
-      <c r="R6" s="7" t="n"/>
-      <c r="S6" s="8" t="n"/>
-      <c r="T6" s="16" t="inlineStr">
+      <c r="R6" s="34" t="n"/>
+      <c r="S6" s="33" t="n"/>
+      <c r="T6" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2405,9 +2457,9 @@
         <f>R6-S6</f>
         <v/>
       </c>
-      <c r="W6" s="7" t="n"/>
-      <c r="X6" s="8" t="n"/>
-      <c r="Y6" s="16" t="inlineStr">
+      <c r="W6" s="34" t="n"/>
+      <c r="X6" s="33" t="n"/>
+      <c r="Y6" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2450,9 +2502,9 @@
           <t>KJ</t>
         </is>
       </c>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="8" t="n"/>
-      <c r="E7" s="16" t="inlineStr">
+      <c r="C7" s="34" t="n"/>
+      <c r="D7" s="33" t="n"/>
+      <c r="E7" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2465,9 +2517,9 @@
         <f>C7-D7</f>
         <v/>
       </c>
-      <c r="H7" s="7" t="n"/>
-      <c r="I7" s="8" t="n"/>
-      <c r="J7" s="16" t="inlineStr">
+      <c r="H7" s="34" t="n"/>
+      <c r="I7" s="33" t="n"/>
+      <c r="J7" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2480,9 +2532,9 @@
         <f>H7-I7</f>
         <v/>
       </c>
-      <c r="M7" s="7" t="n"/>
-      <c r="N7" s="8" t="n"/>
-      <c r="O7" s="16" t="inlineStr">
+      <c r="M7" s="34" t="n"/>
+      <c r="N7" s="33" t="n"/>
+      <c r="O7" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2495,9 +2547,9 @@
         <f>M7-N7</f>
         <v/>
       </c>
-      <c r="R7" s="7" t="n"/>
-      <c r="S7" s="8" t="n"/>
-      <c r="T7" s="16" t="inlineStr">
+      <c r="R7" s="34" t="n"/>
+      <c r="S7" s="33" t="n"/>
+      <c r="T7" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2510,9 +2562,9 @@
         <f>R7-S7</f>
         <v/>
       </c>
-      <c r="W7" s="7" t="n"/>
-      <c r="X7" s="8" t="n"/>
-      <c r="Y7" s="16" t="inlineStr">
+      <c r="W7" s="34" t="n"/>
+      <c r="X7" s="33" t="n"/>
+      <c r="Y7" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2555,9 +2607,9 @@
           <t>BT</t>
         </is>
       </c>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="8" t="n"/>
-      <c r="E8" s="16" t="inlineStr">
+      <c r="C8" s="34" t="n"/>
+      <c r="D8" s="33" t="n"/>
+      <c r="E8" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2570,9 +2622,9 @@
         <f>C8-D8</f>
         <v/>
       </c>
-      <c r="H8" s="7" t="n"/>
-      <c r="I8" s="8" t="n"/>
-      <c r="J8" s="16" t="inlineStr">
+      <c r="H8" s="34" t="n"/>
+      <c r="I8" s="33" t="n"/>
+      <c r="J8" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2585,9 +2637,9 @@
         <f>H8-I8</f>
         <v/>
       </c>
-      <c r="M8" s="7" t="n"/>
-      <c r="N8" s="8" t="n"/>
-      <c r="O8" s="16" t="inlineStr">
+      <c r="M8" s="34" t="n"/>
+      <c r="N8" s="33" t="n"/>
+      <c r="O8" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2600,9 +2652,9 @@
         <f>M8-N8</f>
         <v/>
       </c>
-      <c r="R8" s="7" t="n"/>
-      <c r="S8" s="8" t="n"/>
-      <c r="T8" s="16" t="inlineStr">
+      <c r="R8" s="34" t="n"/>
+      <c r="S8" s="33" t="n"/>
+      <c r="T8" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2615,9 +2667,9 @@
         <f>R8-S8</f>
         <v/>
       </c>
-      <c r="W8" s="7" t="n"/>
-      <c r="X8" s="8" t="n"/>
-      <c r="Y8" s="16" t="inlineStr">
+      <c r="W8" s="34" t="n"/>
+      <c r="X8" s="33" t="n"/>
+      <c r="Y8" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2660,9 +2712,9 @@
           <t>OD</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="8" t="n"/>
-      <c r="E9" s="16" t="inlineStr">
+      <c r="C9" s="34" t="n"/>
+      <c r="D9" s="33" t="n"/>
+      <c r="E9" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2675,9 +2727,9 @@
         <f>C9-D9</f>
         <v/>
       </c>
-      <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="n"/>
-      <c r="J9" s="16" t="inlineStr">
+      <c r="H9" s="34" t="n"/>
+      <c r="I9" s="33" t="n"/>
+      <c r="J9" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2690,9 +2742,9 @@
         <f>H9-I9</f>
         <v/>
       </c>
-      <c r="M9" s="7" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="16" t="inlineStr">
+      <c r="M9" s="34" t="n"/>
+      <c r="N9" s="33" t="n"/>
+      <c r="O9" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2705,9 +2757,9 @@
         <f>M9-N9</f>
         <v/>
       </c>
-      <c r="R9" s="7" t="n"/>
-      <c r="S9" s="8" t="n"/>
-      <c r="T9" s="16" t="inlineStr">
+      <c r="R9" s="34" t="n"/>
+      <c r="S9" s="33" t="n"/>
+      <c r="T9" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2720,9 +2772,9 @@
         <f>R9-S9</f>
         <v/>
       </c>
-      <c r="W9" s="7" t="n"/>
-      <c r="X9" s="8" t="n"/>
-      <c r="Y9" s="16" t="inlineStr">
+      <c r="W9" s="34" t="n"/>
+      <c r="X9" s="33" t="n"/>
+      <c r="Y9" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
         </is>
@@ -2759,34 +2811,34 @@
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="6" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="16" t="n"/>
+      <c r="C10" s="34" t="n"/>
+      <c r="D10" s="33" t="n"/>
+      <c r="E10" s="35" t="n"/>
       <c r="F10" s="9" t="n"/>
       <c r="G10" s="10" t="n"/>
-      <c r="H10" s="7" t="n"/>
-      <c r="I10" s="8" t="n"/>
-      <c r="J10" s="16" t="n"/>
+      <c r="H10" s="34" t="n"/>
+      <c r="I10" s="33" t="n"/>
+      <c r="J10" s="35" t="n"/>
       <c r="K10" s="9" t="n"/>
       <c r="L10" s="10" t="n"/>
-      <c r="M10" s="7" t="n"/>
-      <c r="N10" s="8" t="n"/>
-      <c r="O10" s="16" t="n"/>
+      <c r="M10" s="34" t="n"/>
+      <c r="N10" s="33" t="n"/>
+      <c r="O10" s="35" t="n"/>
       <c r="P10" s="9" t="n"/>
       <c r="Q10" s="10" t="n"/>
-      <c r="R10" s="7" t="n"/>
-      <c r="S10" s="8" t="n"/>
-      <c r="T10" s="16" t="n"/>
+      <c r="R10" s="34" t="n"/>
+      <c r="S10" s="33" t="n"/>
+      <c r="T10" s="35" t="n"/>
       <c r="U10" s="9" t="n"/>
       <c r="V10" s="11" t="n"/>
-      <c r="W10" s="7" t="n"/>
-      <c r="X10" s="8" t="n"/>
-      <c r="Y10" s="16" t="n"/>
+      <c r="W10" s="34" t="n"/>
+      <c r="X10" s="33" t="n"/>
+      <c r="Y10" s="35" t="n"/>
       <c r="Z10" s="9" t="n"/>
       <c r="AA10" s="11" t="n"/>
       <c r="AB10" s="17" t="n"/>
-      <c r="AC10" s="8" t="n"/>
-      <c r="AD10" s="8" t="n"/>
+      <c r="AC10" s="33" t="n"/>
+      <c r="AD10" s="33" t="n"/>
       <c r="AE10" s="9" t="n"/>
       <c r="AF10" s="11" t="n"/>
     </row>

--- a/excel_copies/iso_excel_2024-2025.xlsx
+++ b/excel_copies/iso_excel_2024-2025.xlsx
@@ -76,7 +76,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -121,6 +121,19 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -171,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -278,18 +291,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="1" hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
@@ -637,14 +674,13 @@
   </sheetPr>
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="8.83203125" customWidth="1" style="4" min="1" max="3"/>
-    <col width="8.83203125" customWidth="1" style="4" min="4" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="4" min="1" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -658,60 +694,60 @@
           <t>INITIALS</t>
         </is>
       </c>
-      <c r="C1" s="32" t="inlineStr">
+      <c r="C1" s="36" t="inlineStr">
         <is>
           <t>JUNE</t>
         </is>
       </c>
-      <c r="D1" s="30" t="n"/>
-      <c r="E1" s="30" t="n"/>
-      <c r="F1" s="30" t="n"/>
-      <c r="G1" s="31" t="n"/>
-      <c r="H1" s="29" t="inlineStr">
+      <c r="D1" s="37" t="n"/>
+      <c r="E1" s="37" t="n"/>
+      <c r="F1" s="37" t="n"/>
+      <c r="G1" s="38" t="n"/>
+      <c r="H1" s="35" t="inlineStr">
         <is>
           <t>JULY</t>
         </is>
       </c>
-      <c r="I1" s="30" t="n"/>
-      <c r="J1" s="30" t="n"/>
-      <c r="K1" s="30" t="n"/>
-      <c r="L1" s="31" t="n"/>
-      <c r="M1" s="29" t="inlineStr">
-        <is>
-          <t>AUG</t>
-        </is>
-      </c>
-      <c r="N1" s="30" t="n"/>
-      <c r="O1" s="30" t="n"/>
-      <c r="P1" s="30" t="n"/>
-      <c r="Q1" s="31" t="n"/>
-      <c r="R1" s="29" t="inlineStr">
-        <is>
-          <t>SEP</t>
-        </is>
-      </c>
-      <c r="S1" s="30" t="n"/>
-      <c r="T1" s="30" t="n"/>
-      <c r="U1" s="30" t="n"/>
-      <c r="V1" s="31" t="n"/>
-      <c r="W1" s="29" t="inlineStr">
+      <c r="I1" s="37" t="n"/>
+      <c r="J1" s="37" t="n"/>
+      <c r="K1" s="37" t="n"/>
+      <c r="L1" s="38" t="n"/>
+      <c r="M1" s="35" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="N1" s="37" t="n"/>
+      <c r="O1" s="37" t="n"/>
+      <c r="P1" s="37" t="n"/>
+      <c r="Q1" s="38" t="n"/>
+      <c r="R1" s="35" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
+      <c r="S1" s="37" t="n"/>
+      <c r="T1" s="37" t="n"/>
+      <c r="U1" s="37" t="n"/>
+      <c r="V1" s="38" t="n"/>
+      <c r="W1" s="35" t="inlineStr">
         <is>
           <t>OCT</t>
         </is>
       </c>
-      <c r="X1" s="30" t="n"/>
-      <c r="Y1" s="30" t="n"/>
-      <c r="Z1" s="30" t="n"/>
-      <c r="AA1" s="31" t="n"/>
-      <c r="AB1" s="29" t="inlineStr">
+      <c r="X1" s="37" t="n"/>
+      <c r="Y1" s="37" t="n"/>
+      <c r="Z1" s="37" t="n"/>
+      <c r="AA1" s="38" t="n"/>
+      <c r="AB1" s="35" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="AC1" s="30" t="n"/>
-      <c r="AD1" s="30" t="n"/>
-      <c r="AE1" s="30" t="n"/>
-      <c r="AF1" s="31" t="n"/>
+      <c r="AC1" s="37" t="n"/>
+      <c r="AD1" s="37" t="n"/>
+      <c r="AE1" s="37" t="n"/>
+      <c r="AF1" s="38" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n"/>
@@ -876,19 +912,11 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
+      <c r="C3" s="7" t="n"/>
+      <c r="D3" s="8" t="n"/>
       <c r="E3" s="16" t="inlineStr">
         <is>
-          <t>+9</t>
+          <t xml:space="preserve">+ </t>
         </is>
       </c>
       <c r="F3" s="21">
@@ -899,19 +927,11 @@
         <f>C3-D3</f>
         <v/>
       </c>
-      <c r="H3" s="7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I3" s="8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="H3" s="7" t="n"/>
+      <c r="I3" s="8" t="n"/>
       <c r="J3" s="16" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>+</t>
         </is>
       </c>
       <c r="K3" s="21">
@@ -952,11 +972,19 @@
         <f>R3-S3</f>
         <v/>
       </c>
-      <c r="W3" s="7" t="n"/>
-      <c r="X3" s="8" t="n"/>
+      <c r="W3" s="7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="X3" s="8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="Y3" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+10</t>
         </is>
       </c>
       <c r="Z3" s="21">
@@ -997,19 +1025,11 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="C4" s="7" t="n"/>
+      <c r="D4" s="8" t="n"/>
       <c r="E4" s="16" t="inlineStr">
         <is>
-          <t>+5</t>
+          <t xml:space="preserve">+ </t>
         </is>
       </c>
       <c r="F4" s="21">
@@ -1020,19 +1040,11 @@
         <f>C4-D4</f>
         <v/>
       </c>
-      <c r="H4" s="7" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="I4" s="8" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+      <c r="H4" s="7" t="n"/>
+      <c r="I4" s="8" t="n"/>
       <c r="J4" s="16" t="inlineStr">
         <is>
-          <t>+40</t>
+          <t xml:space="preserve">+ </t>
         </is>
       </c>
       <c r="K4" s="21">
@@ -1073,11 +1085,19 @@
         <f>R4-S4</f>
         <v/>
       </c>
-      <c r="W4" s="7" t="n"/>
-      <c r="X4" s="8" t="n"/>
+      <c r="W4" s="7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="X4" s="8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="Y4" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+10</t>
         </is>
       </c>
       <c r="Z4" s="21">
@@ -1118,19 +1138,11 @@
           <t>AK</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="8" t="n"/>
       <c r="E5" s="16" t="inlineStr">
         <is>
-          <t>+4</t>
+          <t xml:space="preserve">+ </t>
         </is>
       </c>
       <c r="F5" s="21">
@@ -1141,15 +1153,11 @@
         <f>C5-D5</f>
         <v/>
       </c>
-      <c r="H5" s="7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="H5" s="7" t="n"/>
       <c r="I5" s="8" t="n"/>
       <c r="J5" s="16" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve">+ </t>
         </is>
       </c>
       <c r="K5" s="21">
@@ -1190,11 +1198,19 @@
         <f>R5-S5</f>
         <v/>
       </c>
-      <c r="W5" s="7" t="n"/>
-      <c r="X5" s="8" t="n"/>
+      <c r="W5" s="7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="X5" s="8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="Y5" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+10</t>
         </is>
       </c>
       <c r="Z5" s="21">
@@ -1235,19 +1251,11 @@
           <t>VK</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="8" t="n"/>
       <c r="E6" s="16" t="inlineStr">
         <is>
-          <t>+5</t>
+          <t xml:space="preserve">+ </t>
         </is>
       </c>
       <c r="F6" s="21">
@@ -1262,7 +1270,7 @@
       <c r="I6" s="8" t="n"/>
       <c r="J6" s="16" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve">+ </t>
         </is>
       </c>
       <c r="K6" s="21">
@@ -1303,11 +1311,19 @@
         <f>R6-S6</f>
         <v/>
       </c>
-      <c r="W6" s="7" t="n"/>
-      <c r="X6" s="8" t="n"/>
+      <c r="W6" s="7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="X6" s="8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="Y6" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+10</t>
         </is>
       </c>
       <c r="Z6" s="21">
@@ -1348,19 +1364,11 @@
           <t>KJ</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="8" t="n"/>
       <c r="E7" s="16" t="inlineStr">
         <is>
-          <t>+45</t>
+          <t xml:space="preserve">+ </t>
         </is>
       </c>
       <c r="F7" s="21">
@@ -1375,7 +1383,7 @@
       <c r="I7" s="8" t="n"/>
       <c r="J7" s="16" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve">+ </t>
         </is>
       </c>
       <c r="K7" s="21">
@@ -1416,11 +1424,19 @@
         <f>R7-S7</f>
         <v/>
       </c>
-      <c r="W7" s="7" t="n"/>
-      <c r="X7" s="8" t="n"/>
+      <c r="W7" s="7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="X7" s="8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="Y7" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+10</t>
         </is>
       </c>
       <c r="Z7" s="21">
@@ -1461,19 +1477,11 @@
           <t>BT</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="8" t="n"/>
       <c r="E8" s="16" t="inlineStr">
         <is>
-          <t>+5</t>
+          <t xml:space="preserve">+ </t>
         </is>
       </c>
       <c r="F8" s="21">
@@ -1488,7 +1496,7 @@
       <c r="I8" s="8" t="n"/>
       <c r="J8" s="16" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve">+ </t>
         </is>
       </c>
       <c r="K8" s="21">
@@ -1529,11 +1537,19 @@
         <f>R8-S8</f>
         <v/>
       </c>
-      <c r="W8" s="7" t="n"/>
-      <c r="X8" s="8" t="n"/>
+      <c r="W8" s="7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="X8" s="8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="Y8" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+10</t>
         </is>
       </c>
       <c r="Z8" s="21">
@@ -1574,19 +1590,11 @@
           <t>OD</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="C9" s="7" t="n"/>
+      <c r="D9" s="8" t="n"/>
       <c r="E9" s="16" t="inlineStr">
         <is>
-          <t>+5</t>
+          <t xml:space="preserve">+ </t>
         </is>
       </c>
       <c r="F9" s="21">
@@ -1601,7 +1609,7 @@
       <c r="I9" s="8" t="n"/>
       <c r="J9" s="16" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve">+ </t>
         </is>
       </c>
       <c r="K9" s="21">
@@ -1642,11 +1650,19 @@
         <f>R9-S9</f>
         <v/>
       </c>
-      <c r="W9" s="7" t="n"/>
-      <c r="X9" s="8" t="n"/>
+      <c r="W9" s="7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="X9" s="8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="Y9" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+10</t>
         </is>
       </c>
       <c r="Z9" s="21">
@@ -1723,7 +1739,7 @@
         <f>SUM(C3:C9)</f>
         <v/>
       </c>
-      <c r="D11" s="29" t="n"/>
+      <c r="D11" s="35" t="n"/>
       <c r="E11" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
@@ -1741,7 +1757,7 @@
         <f>SUM(H3:H9)</f>
         <v/>
       </c>
-      <c r="I11" s="29" t="n"/>
+      <c r="I11" s="35" t="n"/>
       <c r="J11" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
@@ -1759,7 +1775,7 @@
         <f>SUM(M3:M9)</f>
         <v/>
       </c>
-      <c r="N11" s="29" t="n"/>
+      <c r="N11" s="35" t="n"/>
       <c r="O11" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
@@ -1777,7 +1793,7 @@
         <f>SUM(R3:R9)</f>
         <v/>
       </c>
-      <c r="S11" s="29" t="n"/>
+      <c r="S11" s="35" t="n"/>
       <c r="T11" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
@@ -1795,7 +1811,7 @@
         <f>SUM(W3:W9)</f>
         <v/>
       </c>
-      <c r="X11" s="29" t="n"/>
+      <c r="X11" s="35" t="n"/>
       <c r="Y11" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
@@ -1831,6 +1847,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
   <mergeCells count="6">
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="AB1:AF1"/>
@@ -1868,60 +1885,60 @@
           <t>INITIALS</t>
         </is>
       </c>
-      <c r="C1" s="29" t="inlineStr">
+      <c r="C1" s="35" t="inlineStr">
         <is>
           <t>JUNE</t>
         </is>
       </c>
-      <c r="D1" s="30" t="n"/>
-      <c r="E1" s="30" t="n"/>
-      <c r="F1" s="30" t="n"/>
-      <c r="G1" s="31" t="n"/>
-      <c r="H1" s="29" t="inlineStr">
+      <c r="D1" s="37" t="n"/>
+      <c r="E1" s="37" t="n"/>
+      <c r="F1" s="37" t="n"/>
+      <c r="G1" s="38" t="n"/>
+      <c r="H1" s="35" t="inlineStr">
         <is>
           <t>JULY</t>
         </is>
       </c>
-      <c r="I1" s="30" t="n"/>
-      <c r="J1" s="30" t="n"/>
-      <c r="K1" s="30" t="n"/>
-      <c r="L1" s="31" t="n"/>
-      <c r="M1" s="29" t="inlineStr">
+      <c r="I1" s="37" t="n"/>
+      <c r="J1" s="37" t="n"/>
+      <c r="K1" s="37" t="n"/>
+      <c r="L1" s="38" t="n"/>
+      <c r="M1" s="35" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
       </c>
-      <c r="N1" s="30" t="n"/>
-      <c r="O1" s="30" t="n"/>
-      <c r="P1" s="30" t="n"/>
-      <c r="Q1" s="31" t="n"/>
-      <c r="R1" s="29" t="inlineStr">
+      <c r="N1" s="37" t="n"/>
+      <c r="O1" s="37" t="n"/>
+      <c r="P1" s="37" t="n"/>
+      <c r="Q1" s="38" t="n"/>
+      <c r="R1" s="35" t="inlineStr">
         <is>
           <t>Sep</t>
         </is>
       </c>
-      <c r="S1" s="30" t="n"/>
-      <c r="T1" s="30" t="n"/>
-      <c r="U1" s="30" t="n"/>
-      <c r="V1" s="31" t="n"/>
-      <c r="W1" s="29" t="inlineStr">
+      <c r="S1" s="37" t="n"/>
+      <c r="T1" s="37" t="n"/>
+      <c r="U1" s="37" t="n"/>
+      <c r="V1" s="38" t="n"/>
+      <c r="W1" s="35" t="inlineStr">
         <is>
           <t>OCT</t>
         </is>
       </c>
-      <c r="X1" s="30" t="n"/>
-      <c r="Y1" s="30" t="n"/>
-      <c r="Z1" s="30" t="n"/>
-      <c r="AA1" s="31" t="n"/>
-      <c r="AB1" s="29" t="inlineStr">
+      <c r="X1" s="37" t="n"/>
+      <c r="Y1" s="37" t="n"/>
+      <c r="Z1" s="37" t="n"/>
+      <c r="AA1" s="38" t="n"/>
+      <c r="AB1" s="35" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="AC1" s="30" t="n"/>
-      <c r="AD1" s="30" t="n"/>
-      <c r="AE1" s="30" t="n"/>
-      <c r="AF1" s="31" t="n"/>
+      <c r="AC1" s="37" t="n"/>
+      <c r="AD1" s="37" t="n"/>
+      <c r="AE1" s="37" t="n"/>
+      <c r="AF1" s="38" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n"/>
@@ -2861,7 +2878,7 @@
         <f>SUM(C3:C9)</f>
         <v/>
       </c>
-      <c r="D11" s="29" t="n"/>
+      <c r="D11" s="35" t="n"/>
       <c r="E11" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
@@ -2879,7 +2896,7 @@
         <f>SUM(H3:H9)</f>
         <v/>
       </c>
-      <c r="I11" s="29" t="n"/>
+      <c r="I11" s="35" t="n"/>
       <c r="J11" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
@@ -2897,7 +2914,7 @@
         <f>SUM(M3:M9)</f>
         <v/>
       </c>
-      <c r="N11" s="29" t="n"/>
+      <c r="N11" s="35" t="n"/>
       <c r="O11" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
@@ -2915,7 +2932,7 @@
         <f>SUM(R3:R9)</f>
         <v/>
       </c>
-      <c r="S11" s="29" t="n"/>
+      <c r="S11" s="35" t="n"/>
       <c r="T11" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
@@ -2933,7 +2950,7 @@
         <f>SUM(W3:W9)</f>
         <v/>
       </c>
-      <c r="X11" s="29" t="n"/>
+      <c r="X11" s="35" t="n"/>
       <c r="Y11" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve">+ </t>
